--- a/grafiki/grafiki.xlsx
+++ b/grafiki/grafiki.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="large_data" sheetId="4" r:id="rId1"/>
@@ -263,20 +263,44 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135886336"/>
-        <c:axId val="135887872"/>
+        <c:axId val="151130112"/>
+        <c:axId val="151132416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135886336"/>
+        <c:axId val="151130112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135887872"/>
+        <c:crossAx val="151132416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -284,18 +308,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135887872"/>
+        <c:axId val="151132416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135886336"/>
+        <c:crossAx val="151130112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -479,20 +522,39 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="135075328"/>
-        <c:axId val="135076864"/>
+        <c:axId val="159292800"/>
+        <c:axId val="169936000"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="135075328"/>
+        <c:axId val="159292800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data size</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135076864"/>
+        <c:crossAx val="169936000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -500,18 +562,41 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135076864"/>
+        <c:axId val="169936000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="wordArtVert"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> time</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135075328"/>
+        <c:crossAx val="159292800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -532,7 +617,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -543,7 +628,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="93" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="93" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
